--- a/StructureDefinition-us-core-adi-documentreference.xlsx
+++ b/StructureDefinition-us-core-adi-documentreference.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -449,33 +449,57 @@
     <t>DocumentReference.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension:authenticationTime</t>
+  </si>
+  <si>
+    <t>authenticationTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-authentication-time}
+</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Authentication Time Extension"</t>
+  </si>
+  <si>
+    <t>When the information in the document was verified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>DocumentReference.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DocumentReference.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -483,6 +507,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -684,9 +711,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Composition.class</t>
   </si>
   <si>
@@ -848,7 +872,54 @@
     <t>DocumentEntry.legalAuthenticator</t>
   </si>
   <si>
-    <t>DocumentReference.authenticator.id</t>
+    <t>DocumentReference.custodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization which maintains the document</t>
+  </si>
+  <si>
+    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
+  </si>
+  <si>
+    <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
+  </si>
+  <si>
+    <t>Composition.custodian</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Relationships to other documents</t>
+  </si>
+  <si>
+    <t>Relationships that this document has with other document references that already exist.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo</t>
+  </si>
+  <si>
+    <t>.outboundRelationship</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -867,166 +938,16 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>DocumentReference.authenticator.extension</t>
+    <t>DocumentReference.relatesTo.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator.extension:authenticationTime</t>
-  </si>
-  <si>
-    <t>authenticationTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/uscdi5-sandbox/StructureDefinition/us-core-authentication-time}
-</t>
-  </si>
-  <si>
-    <t>US Core DocumentReference Authentication Time Extension"</t>
-  </si>
-  <si>
-    <t>When the information in the document was verified.</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>DocumentReference.custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization which maintains the document</t>
-  </si>
-  <si>
-    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
-  </si>
-  <si>
-    <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
-  </si>
-  <si>
-    <t>Composition.custodian</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Relationships to other documents</t>
-  </si>
-  <si>
-    <t>Relationships that this document has with other document references that already exist.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo</t>
-  </si>
-  <si>
-    <t>.outboundRelationship</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.extension</t>
   </si>
   <si>
     <t>DocumentReference.relatesTo.modifierExtension</t>
@@ -1218,6 +1139,9 @@
   </si>
   <si>
     <t>DocumentReference.content.attachment.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.contentType</t>
@@ -1977,7 +1901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ64"/>
+  <dimension ref="A1:AQ58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1986,7 +1910,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.9296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3029,7 +2953,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3048,17 +2972,15 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -3095,16 +3017,14 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>145</v>
@@ -3128,7 +3048,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3148,43 +3068,41 @@
         <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3232,7 +3150,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>83</v>
@@ -3241,7 +3159,7 @@
         <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>146</v>
@@ -3253,7 +3171,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3270,45 +3188,45 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3357,48 +3275,48 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>164</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3409,10 +3327,10 @@
         <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>82</v>
@@ -3421,16 +3339,20 @@
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>82</v>
       </c>
@@ -3478,13 +3400,13 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>82</v>
@@ -3493,33 +3415,33 @@
         <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3527,32 +3449,30 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>96</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3577,11 +3497,13 @@
         <v>82</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>82</v>
@@ -3599,13 +3521,13 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
@@ -3614,33 +3536,33 @@
         <v>107</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AP13" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AQ13" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AQ13" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3648,16 +3570,16 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>96</v>
@@ -3666,13 +3588,13 @@
         <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3698,13 +3620,11 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3722,10 +3642,10 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>95</v>
@@ -3737,33 +3657,33 @@
         <v>107</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AP14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AQ14" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AQ14" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3771,13 +3691,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>82</v>
@@ -3786,16 +3706,16 @@
         <v>96</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3821,13 +3741,13 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -3845,7 +3765,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>83</v>
@@ -3860,44 +3780,44 @@
         <v>107</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>95</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>96</v>
@@ -3909,16 +3829,16 @@
         <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3944,35 +3864,37 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>82</v>
@@ -3981,43 +3903,41 @@
         <v>107</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>84</v>
@@ -4032,16 +3952,16 @@
         <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4067,31 +3987,29 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>83</v>
@@ -4109,41 +4027,43 @@
         <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>96</v>
@@ -4155,15 +4075,17 @@
         <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -4188,13 +4110,13 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4212,13 +4134,13 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
@@ -4227,41 +4149,41 @@
         <v>107</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>95</v>
@@ -4276,17 +4198,15 @@
         <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4335,7 +4255,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>83</v>
@@ -4350,44 +4270,44 @@
         <v>107</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AQ19" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>96</v>
@@ -4399,16 +4319,16 @@
         <v>96</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4458,13 +4378,13 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
@@ -4473,33 +4393,33 @@
         <v>107</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM20" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP20" t="s" s="2">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>256</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4510,7 +4430,7 @@
         <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>96</v>
@@ -4519,19 +4439,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4581,13 +4501,13 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
@@ -4596,33 +4516,33 @@
         <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AQ21" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4636,7 +4556,7 @@
         <v>95</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4645,15 +4565,17 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4702,7 +4624,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>83</v>
@@ -4714,47 +4636,47 @@
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AP22" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AQ22" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4766,16 +4688,16 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4813,40 +4735,40 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -4863,14 +4785,12 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4879,27 +4799,29 @@
         <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="I24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4948,7 +4870,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>83</v>
@@ -4960,16 +4882,16 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
@@ -4981,15 +4903,15 @@
         <v>82</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>82</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5009,20 +4931,18 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5071,7 +4991,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>83</v>
@@ -5080,10 +5000,10 @@
         <v>95</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
@@ -5092,7 +5012,7 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
@@ -5109,21 +5029,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -5132,19 +5052,19 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5170,52 +5090,52 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
@@ -5232,44 +5152,46 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5317,19 +5239,19 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5338,7 +5260,7 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
@@ -5355,10 +5277,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5366,7 +5288,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>95</v>
@@ -5381,16 +5303,16 @@
         <v>96</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>115</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5416,13 +5338,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5440,10 +5362,10 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>95</v>
@@ -5458,10 +5380,10 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>138</v>
+        <v>312</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
@@ -5473,15 +5395,15 @@
         <v>82</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5489,7 +5411,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>95</v>
@@ -5501,20 +5423,18 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5563,10 +5483,10 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>95</v>
@@ -5578,13 +5498,13 @@
         <v>107</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
@@ -5596,15 +5516,15 @@
         <v>82</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5615,7 +5535,7 @@
         <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
@@ -5627,18 +5547,20 @@
         <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5686,13 +5608,13 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
@@ -5704,10 +5626,10 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
@@ -5716,18 +5638,18 @@
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5738,7 +5660,7 @@
         <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5747,19 +5669,23 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5783,13 +5709,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5807,81 +5733,79 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>141</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>142</v>
+        <v>342</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5930,10 +5854,10 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>84</v>
@@ -5942,16 +5866,16 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -5968,46 +5892,42 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6055,19 +5975,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6076,7 +5996,7 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
@@ -6093,21 +6013,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6116,19 +6036,19 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6154,13 +6074,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6178,28 +6098,28 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
@@ -6211,47 +6131,51 @@
         <v>82</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>340</v>
+        <v>140</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6299,28 +6223,28 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>344</v>
+        <v>138</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6332,15 +6256,15 @@
         <v>82</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6348,13 +6272,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6363,20 +6287,18 @@
         <v>96</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6424,10 +6346,10 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>95</v>
@@ -6436,36 +6358,36 @@
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>107</v>
+        <v>354</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6476,7 +6398,7 @@
         <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6485,23 +6407,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6525,13 +6443,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6549,79 +6467,81 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6658,22 +6578,22 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>84</v>
@@ -6682,16 +6602,16 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
@@ -6708,10 +6628,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6725,25 +6645,27 @@
         <v>95</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>269</v>
+        <v>115</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>271</v>
+        <v>364</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6755,7 +6677,7 @@
         <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>82</v>
@@ -6767,13 +6689,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6791,7 +6713,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>369</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>83</v>
@@ -6803,7 +6725,7 @@
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -6812,7 +6734,7 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>273</v>
+        <v>370</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
@@ -6821,7 +6743,7 @@
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>82</v>
@@ -6836,14 +6758,14 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6852,21 +6774,21 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>142</v>
+        <v>373</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6878,7 +6800,7 @@
         <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>82</v>
@@ -6890,13 +6812,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6914,19 +6836,19 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>377</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -6935,7 +6857,7 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>273</v>
+        <v>378</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -6952,45 +6874,45 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>141</v>
+        <v>380</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>144</v>
+        <v>383</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>150</v>
+        <v>384</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7039,19 +6961,19 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -7060,7 +6982,7 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>138</v>
+        <v>387</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -7069,7 +6991,7 @@
         <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>82</v>
@@ -7077,10 +6999,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7088,7 +7010,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>95</v>
@@ -7103,18 +7025,20 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7126,7 +7050,7 @@
         <v>82</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>82</v>
@@ -7162,48 +7086,48 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>379</v>
+        <v>107</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7223,19 +7147,23 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>269</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>270</v>
+        <v>401</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7283,7 +7211,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>272</v>
+        <v>405</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>83</v>
@@ -7295,7 +7223,7 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7304,7 +7232,7 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>273</v>
+        <v>406</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
@@ -7321,21 +7249,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7344,21 +7272,23 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>141</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7394,31 +7324,31 @@
         <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>278</v>
+        <v>412</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7427,7 +7357,7 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>273</v>
+        <v>413</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
@@ -7444,10 +7374,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7461,7 +7391,7 @@
         <v>95</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
@@ -7470,17 +7400,17 @@
         <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7493,7 +7423,7 @@
         <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>82</v>
@@ -7505,13 +7435,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7529,7 +7459,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>83</v>
@@ -7550,7 +7480,7 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7559,7 +7489,7 @@
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>82</v>
@@ -7567,10 +7497,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7593,17 +7523,17 @@
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>115</v>
+        <v>422</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7616,7 +7546,7 @@
         <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>82</v>
@@ -7628,13 +7558,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7652,7 +7582,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>83</v>
@@ -7673,7 +7603,7 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7690,10 +7620,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7713,23 +7643,21 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7753,13 +7681,11 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>82</v>
+        <v>432</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7777,7 +7703,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>83</v>
@@ -7786,7 +7712,7 @@
         <v>95</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>107</v>
@@ -7795,30 +7721,30 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>82</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7841,20 +7767,18 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>414</v>
+        <v>283</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7866,7 +7790,7 @@
         <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>82</v>
@@ -7902,7 +7826,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>83</v>
@@ -7911,7 +7835,7 @@
         <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>107</v>
@@ -7923,7 +7847,7 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -7932,7 +7856,7 @@
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>82</v>
@@ -7940,10 +7864,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7963,23 +7887,19 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>424</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8027,7 +7947,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>429</v>
+        <v>294</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -8039,7 +7959,7 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8048,7 +7968,7 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>430</v>
+        <v>295</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -8065,21 +7985,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8088,23 +8008,21 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>404</v>
+        <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>432</v>
+        <v>297</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>433</v>
+        <v>298</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8152,19 +8070,19 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>436</v>
+        <v>299</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8173,7 +8091,7 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>437</v>
+        <v>295</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
@@ -8190,43 +8108,45 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>439</v>
+        <v>302</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>441</v>
+        <v>158</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8239,7 +8159,7 @@
         <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>82</v>
@@ -8275,19 +8195,19 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>443</v>
+        <v>304</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8296,7 +8216,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8313,10 +8233,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8330,27 +8250,25 @@
         <v>95</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>449</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8398,13 +8316,13 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
@@ -8413,19 +8331,19 @@
         <v>107</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8436,10 +8354,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8450,19 +8368,19 @@
         <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>452</v>
+        <v>200</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>453</v>
@@ -8497,11 +8415,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8519,13 +8439,13 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
@@ -8537,13 +8457,13 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>370</v>
+        <v>459</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8552,15 +8472,15 @@
         <v>82</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8583,17 +8503,15 @@
         <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>316</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8642,7 +8560,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
@@ -8660,13 +8578,13 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8675,15 +8593,15 @@
         <v>82</v>
       </c>
       <c r="AQ54" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8706,13 +8624,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>271</v>
+        <v>471</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8739,13 +8657,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8763,7 +8681,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>272</v>
+        <v>469</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>83</v>
@@ -8775,19 +8693,19 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>273</v>
+        <v>475</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8796,26 +8714,26 @@
         <v>82</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8827,18 +8745,20 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>142</v>
+        <v>479</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8862,13 +8782,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>82</v>
+        <v>484</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8886,31 +8806,31 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>278</v>
+        <v>478</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>273</v>
+        <v>475</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8919,51 +8839,47 @@
         <v>82</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>82</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>488</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9011,31 +8927,31 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>329</v>
+        <v>486</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9044,15 +8960,15 @@
         <v>82</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>82</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9063,10 +8979,10 @@
         <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9075,15 +8991,17 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9132,7 +9050,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
@@ -9147,763 +9065,29 @@
         <v>107</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM61" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ62" t="s" s="2">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ63" t="s" s="2">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>523</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ64">
+  <autoFilter ref="A1:AQ58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9913,7 +9097,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-us-core-adi-documentreference.xlsx
+++ b/StructureDefinition-us-core-adi-documentreference.xlsx
@@ -90,7 +90,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The US Core ADI DocumentReference Profile inherits from the FHIR [DocumentReference](https://hl7.org/fhir/R4/documentreference.html) resource; refer to it for scope and usage definitions. This profile and the [US Core Observation ADI Presence Profile] together meet the requirements of the U.S. Core Data for Interoperability (USCDI) *Advance Directive Observation* Data Element. This profile sets minimum expectations for searching and fetching patient ADI documents including Clinical Notes using the DocumentReference resource. Examples of advance healthcare directive documents include physician order for life sustaining treatment (POLST), do not resuscitate order (DNR), and medical power of attorney. In addition to the document itseld, it communicates the types of advance directive documents, the author, verifier, and other properties. To communicates whether any advance directive documents exist for a patient, see the [US Core Observation ADI Documentation2 Profile]. This profile sets minimum expectations for searching and fetching patient ADI documents using the DocumentReference resource.  It specifies which core elements, extensions, vocabularies, and value sets **SHALL** be present and constrains how the elements are used. Providing the floor for standards development for specific use cases promotes interoperability and adoption. Before reviewing this profile, implementers are encouraged to read the Clinical Notes Guidance to understand the overlap of the US Core DiagnosticReport Profile for Report and Note exchange and the US Core DocumentReference Profile.</t>
+    <t>The US Core ADI DocumentReference Profile inherits from the FHIR [DocumentReference](https://hl7.org/fhir/R4/documentreference.html) resource; refer to it for scope and usage definitions. This profile and the [US Core Observation ADI Documentation Profile](StructureDefinition-us-core-observation-adi-documentation.html) meet the [U.S. Core Data for Interoperability (USCDI)](https://www.healthit.gov/isp/united-states-core-data-interoperability-uscdi) *Advance Directive Observation* Data Element requirements. It sets minimum expectations for searching and fetching patient ADI documents using the DocumentReference resource. Examples of advance healthcare directive documents include physician order for life sustaining treatment (POLST), do not resuscitate order (DNR), and medical power of attorney. In addition to the document contents, it communicates the type of advance directive document, the author, the verifier, and other properties. To represent whether advance directive documents exist for a patient, see the US Core Observation ADI Documentation Profile. This profile sets minimum expectations for searching and fetching patient ADI documents using the DocumentReference resource. It specifies which core elements, extensions, vocabularies, and value sets **SHALL** be present and constrains how the elements are used. Providing the floor for standards development for specific use cases promotes interoperability and adoption.</t>
   </si>
   <si>
     <t>Purpose</t>
